--- a/samples/rules.xlsx
+++ b/samples/rules.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinkpad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\u01\workspace\No.1-SQL-Assist\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1292F1C9-F9FB-49AB-94E6-EB1102D4FBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1160F757-FFA3-4094-8F85-2E4777E629F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>RULE</t>
     <phoneticPr fontId="1"/>
@@ -760,6 +760,24 @@
 - デフォルトは当期のデータのみ表示
 - キャンセル済み取引は除外
 【例外】：過去期間を明示的に指定された場合は適用しない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個別</t>
+    <rPh sb="0" eb="2">
+      <t>コベツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1141,42 +1159,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="176.25" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="176.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="409.5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="409.5">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="409.5">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" ht="409.5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="409.5">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" ht="409.5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="409.5">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2" ht="409.5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="409.5">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2" ht="409.5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
